--- a/pred_ohlcv/54_21/2019-10-25 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 LAMB ohlcv.xlsx
@@ -2238,7 +2238,7 @@
         <v>-712082.6295211538</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-807082.6295211538</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-796160.9567211538</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-839103.8054211538</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-904654.2163712892</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-903426.3542712892</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-904654.2162712892</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-904618.2162712892</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-913628.2162712892</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-865228.2162712892</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-864324.1212712892</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-862314.1212712892</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-862356.6212712892</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-852491.2158712891</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-854491.2158712891</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-854481.2158712891</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-855358.1396712891</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-854748.1465712892</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1154623.028471289</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-695758.4535712893</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-712958.4535712893</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-712916.1317712893</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-638206.5577712893</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-604806.5577712893</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-604306.5577712893</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-627502.9336712892</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-626502.9336712892</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-626002.9336712892</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-202749.9002712893</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-202738.9002712893</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-196334.2369627841</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-198000.1246627841</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-198784.6484627841</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-199527.0426627841</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-186727.0426627841</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-154673.0426627841</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-144202.2068627841</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-145358.7555627842</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-140788.2671627841</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-76547.1512712893</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-81147.1512712893</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-113232.6689712893</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-109715.9509712893</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-88203.29117128928</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>215840.588725231</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>215840.588725231</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>420463.926725231</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>453638.712225231</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>461151.001225231</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>451651.001225231</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>459151.001225231</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>506760.153525231</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>515170.350325231</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>470986.9122252309</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>334115.0375252309</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>167652.9739252309</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-8124.902974769095</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6067.333374769095</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6844.049174769095</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-589942.2566053033</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-25 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-25 LAMB ohlcv.xlsx
@@ -2602,7 +2602,7 @@
         <v>-904654.2162712892</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-904618.2162712892</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-913628.2162712892</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-865228.2162712892</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-852491.2158712891</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-854491.2158712891</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-854481.2158712891</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-855358.1396712891</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-854748.1465712892</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1154623.028471289</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-712958.4535712893</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-711958.4535712893</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-654857.5725712893</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-642206.5577712893</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-638206.5577712893</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-604806.5577712893</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-604306.5577712893</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-613306.5577712893</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-613296.5577712893</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-613796.5577712893</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-613796.5577712893</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-613796.5577712893</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-627502.9336712892</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-626502.9336712892</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-597202.9336712892</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-273871.1859712893</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-209846.9002712893</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-208633.9002712893</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-202749.9002712893</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-202738.9002712893</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-214348.7257712893</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-196334.2369627841</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-198000.1246627841</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-198784.6484627841</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-199527.0426627841</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-186727.0426627841</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-176473.0426627841</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-164673.0426627841</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-154673.0426627841</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-160297.0785627841</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-144202.2068627841</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-145358.7555627842</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-140788.2671627841</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-76557.1512712893</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-76547.1512712893</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-81147.1512712893</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-113232.6689712893</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-109715.9509712893</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-88203.29117128928</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>177.3679584817046</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>371771.8105584817</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>375567.6647584817</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>366572.2102130271</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>366572.2102130271</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>178536.0454584816</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>178158.1119584816</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>200345.0957584816</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>180876.266325231</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>191380.310625231</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>248136.183225231</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>144687.402825231</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>144687.402825231</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>158921.003525231</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>200229.475125231</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>137021.561325231</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>215840.588725231</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>215840.588725231</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>420463.926725231</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>453638.712225231</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>461151.001225231</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>451651.001225231</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>459151.001225231</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>506760.153525231</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>515170.350325231</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>470986.9122252309</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>508296.9122252309</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>421053.4180252309</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>334115.0375252309</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>167652.9739252309</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>83202.0455252309</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-8124.902974769095</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6067.333374769095</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6844.049174769095</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-10349.2035747691</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-662.412574769095</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-63366.8617747691</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-106391.7788747691</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-589942.2566053033</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
